--- a/biology/Zoologie/Ansonia_minuta/Ansonia_minuta.xlsx
+++ b/biology/Zoologie/Ansonia_minuta/Ansonia_minuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ansonia minuta est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ansonia minuta est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique de l'Ouest de l'île de Bornéo[1]. Elle se rencontre entre 200 et 1 000 m d'altitude :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique de l'Ouest de l'île de Bornéo. Elle se rencontre entre 200 et 1 000 m d'altitude :
 au Kalimantan en Indonésie ;
 dans le centre et l'ouest de l'État de Sarawak en Malaisie.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 20 à 24 mm et les femelles jusqu'à 30 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 20 à 24 mm et les femelles jusqu'à 30 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Inger, 1960 : A review of the oriental toads of the genus Ansonia Stoliczka. Fieldiana, Zoology, vol. 39, no 43, p. 473-503 (texte intégral).</t>
         </is>
